--- a/untranslated/downloads/data-excel/16.7.1.1.xlsx
+++ b/untranslated/downloads/data-excel/16.7.1.1.xlsx
@@ -613,7 +613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -692,6 +694,9 @@
       <c r="K4" s="9">
         <v>2019</v>
       </c>
+      <c r="L4" s="9">
+        <v>2020</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -727,7 +732,9 @@
       <c r="K5" s="15">
         <v>1.2</v>
       </c>
-      <c r="L5" s="16"/>
+      <c r="L5" s="15">
+        <v>1.2</v>
+      </c>
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -764,6 +771,9 @@
       <c r="K6" s="20">
         <v>1.7</v>
       </c>
+      <c r="L6" s="20">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
@@ -799,6 +809,9 @@
       <c r="K7" s="20">
         <v>0.37651652489192583</v>
       </c>
+      <c r="L7" s="20">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -834,7 +847,9 @@
       <c r="K8" s="15">
         <v>3.3</v>
       </c>
-      <c r="L8" s="16"/>
+      <c r="L8" s="15">
+        <v>3.3</v>
+      </c>
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -871,6 +886,9 @@
       <c r="K9" s="20">
         <v>3.9</v>
       </c>
+      <c r="L9" s="20">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
@@ -906,6 +924,9 @@
       <c r="K10" s="20">
         <v>2.5</v>
       </c>
+      <c r="L10" s="20">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -941,7 +962,9 @@
       <c r="K11" s="15">
         <v>95.5</v>
       </c>
-      <c r="L11" s="16"/>
+      <c r="L11" s="15">
+        <v>95.5</v>
+      </c>
       <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -978,6 +1001,9 @@
       <c r="K12" s="20">
         <v>94.4</v>
       </c>
+      <c r="L12" s="20">
+        <v>94.4</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
@@ -1012,6 +1038,9 @@
       </c>
       <c r="K13" s="24">
         <v>97.155208478594332</v>
+      </c>
+      <c r="L13" s="24">
+        <v>97.2</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">

--- a/untranslated/downloads/data-excel/16.7.1.1.xlsx
+++ b/untranslated/downloads/data-excel/16.7.1.1.xlsx
@@ -105,7 +105,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,12 +148,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -170,6 +164,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -225,9 +230,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -272,39 +277,50 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -613,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,6 +713,9 @@
       <c r="L4" s="9">
         <v>2020</v>
       </c>
+      <c r="M4" s="28">
+        <v>2021</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -735,82 +754,90 @@
       <c r="L5" s="15">
         <v>1.2</v>
       </c>
-      <c r="M5" s="16"/>
+      <c r="M5" s="29">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>3.9275482857406896</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>6.0874590637642072</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>5.7</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>5.7256867112100966</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>5.8657110524330438</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>2.3249166269652215</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="19">
         <v>1.9556224144415193</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="19">
         <v>1.7</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <v>1.7</v>
       </c>
+      <c r="M6" s="30">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>1.5741507870753937</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>3.1263444715330562</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>2.5811941568571832</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>2.5051334702258727</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>2.5604952166572876</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>0.48189453393914355</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <v>0.37651652489192583</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="19">
         <v>0.37651652489192583</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="19">
         <v>0.4</v>
+      </c>
+      <c r="M7" s="30">
+        <v>1.4</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -850,81 +877,89 @@
       <c r="L8" s="15">
         <v>3.3</v>
       </c>
-      <c r="M8" s="16"/>
+      <c r="M8" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>2.7446631549764349</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>1.6470814871893662</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>2.5612472160356345</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>2.8479818936250472</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <v>2.8299190090519297</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="19">
         <v>2.6795787890184277</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="19">
         <v>3.9</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="19">
         <v>3.9</v>
       </c>
+      <c r="M9" s="30">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>2</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>0.86046178115588701</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>1.6735214863139982</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="18">
         <v>1.6563997262149213</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <v>2.3494653911086099</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="19">
         <v>2.4232410849511221</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="19">
         <v>2.4682749965137361</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="19">
         <v>2.5</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="M10" s="30">
         <v>2.4</v>
       </c>
     </row>
@@ -965,126 +1000,134 @@
       <c r="L11" s="15">
         <v>95.5</v>
       </c>
-      <c r="M11" s="16"/>
+      <c r="M11" s="29">
+        <v>94.4</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>93.32778855928288</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>92.265459449046432</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>92.2</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <v>91.713066072754273</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="19">
         <v>91.295737457563192</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <v>94.835636017151032</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="19">
         <v>95.364798796540057</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="19">
         <v>94.4</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="19">
         <v>94.4</v>
       </c>
+      <c r="M12" s="30">
+        <v>93.1</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>96.4</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>96.01319374731105</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>95.745284356828819</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>95.838466803559214</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <v>95.1</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="23">
         <v>97.09486438110973</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="23">
         <v>97.155208478594332</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="23">
         <v>97.155208478594332</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="23">
         <v>97.2</v>
       </c>
+      <c r="M13" s="31">
+        <v>96.2</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/untranslated/downloads/data-excel/16.7.1.1.xlsx
+++ b/untranslated/downloads/data-excel/16.7.1.1.xlsx
@@ -627,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,7 +641,7 @@
     <col min="4" max="10" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -662,7 +662,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -673,10 +673,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -716,8 +716,11 @@
       <c r="M4" s="28">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -757,8 +760,11 @@
       <c r="M5" s="29">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="29">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
@@ -798,8 +804,11 @@
       <c r="M6" s="30">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="30">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>12</v>
       </c>
@@ -839,8 +848,11 @@
       <c r="M7" s="30">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="30">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -880,8 +892,11 @@
       <c r="M8" s="29">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="29">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
@@ -921,8 +936,11 @@
       <c r="M9" s="30">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="30">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>12</v>
       </c>
@@ -962,8 +980,11 @@
       <c r="M10" s="30">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="30">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
@@ -1003,8 +1024,11 @@
       <c r="M11" s="29">
         <v>94.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="29">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
@@ -1044,8 +1068,11 @@
       <c r="M12" s="30">
         <v>93.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="30">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
@@ -1085,8 +1112,11 @@
       <c r="M13" s="31">
         <v>96.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="N13" s="31">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>21</v>
       </c>
@@ -1105,7 +1135,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -1117,7 +1147,7 @@
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>

--- a/untranslated/downloads/data-excel/16.7.1.1.xlsx
+++ b/untranslated/downloads/data-excel/16.7.1.1.xlsx
@@ -22,9 +22,6 @@
     <t>(в процентах)</t>
   </si>
   <si>
-    <t>(in per cent)</t>
-  </si>
-  <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>16.7.1.1 Мамлекеттик мекемелердеги кызмат орундарынын үлүшү</t>
+  </si>
+  <si>
+    <t>(in percent)</t>
   </si>
 </sst>
 </file>
@@ -627,11 +627,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -641,15 +639,15 @@
     <col min="4" max="10" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -662,7 +660,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -670,21 +668,21 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="D4" s="9">
         <v>2012</v>
@@ -719,16 +717,19 @@
       <c r="N4" s="28">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="28">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="13">
         <v>2.9840004428943145</v>
@@ -763,16 +764,19 @@
       <c r="N5" s="29">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="29">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="18">
         <v>3.9275482857406896</v>
@@ -807,16 +811,19 @@
       <c r="N6" s="30">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="30">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="D7" s="18">
         <v>1.5741507870753937</v>
@@ -851,16 +858,19 @@
       <c r="N7" s="30">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="30">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="D8" s="13">
         <v>2.446991086751924</v>
@@ -895,16 +905,19 @@
       <c r="N8" s="29">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="29">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>11</v>
       </c>
       <c r="D9" s="18">
         <v>2.7446631549764349</v>
@@ -939,16 +952,19 @@
       <c r="N9" s="30">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="30">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>14</v>
       </c>
       <c r="D10" s="18">
         <v>2</v>
@@ -983,16 +999,19 @@
       <c r="N10" s="30">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="30">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="D11" s="13">
         <v>94.569008470353765</v>
@@ -1027,16 +1046,19 @@
       <c r="N11" s="29">
         <v>92.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="29">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>11</v>
       </c>
       <c r="D12" s="18">
         <v>93.32778855928288</v>
@@ -1071,16 +1093,19 @@
       <c r="N12" s="30">
         <v>91.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="30">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="21" t="s">
         <v>13</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>14</v>
       </c>
       <c r="D13" s="22">
         <v>96.4</v>
@@ -1115,16 +1140,19 @@
       <c r="N13" s="31">
         <v>94.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="O13" s="31">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="C14" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>23</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -1135,7 +1163,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -1147,7 +1175,7 @@
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
